--- a/FH-task2/FH_bases_pafam_optimization_results_2024_11_13_16_27-2.xlsx
+++ b/FH-task2/FH_bases_pafam_optimization_results_2024_11_13_16_27-2.xlsx
@@ -518,12 +518,12 @@
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>FH new y</t>
+          <t>FH flown</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>FH flown</t>
+          <t>FH final</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="Q2" t="n">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="Q3" t="n">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="n">
-        <v>70</v>
+        <v>1289</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="n">
-        <v>68</v>
+        <v>1500</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         <v>9</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="Q6" t="n">
-        <v>122</v>
+        <v>1736</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="Q7" t="n">
-        <v>139</v>
+        <v>1833</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1018,10 +1018,10 @@
         <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="n">
-        <v>82</v>
+        <v>1672</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1174,10 +1174,10 @@
         <v>20</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q10" t="n">
-        <v>185</v>
+        <v>2185</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1241,10 +1241,10 @@
         <v>6</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="n">
-        <v>68</v>
+        <v>1131</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1308,10 +1308,10 @@
         <v>13</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="Q12" t="n">
-        <v>182</v>
+        <v>1453</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>FH new y</t>
+          <t>FH flown</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>FH flown</t>
+          <t>FH final</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -1582,10 +1582,10 @@
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="Q2" t="n">
-        <v>360</v>
+        <v>890</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -1649,10 +1649,10 @@
         <v>19</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="Q3" t="n">
-        <v>276</v>
+        <v>995</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -1722,10 +1722,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="n">
-        <v>111</v>
+        <v>1000</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -1795,10 +1795,10 @@
         <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>1580</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="Q6" t="n">
-        <v>303</v>
+        <v>2000</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="n">
-        <v>70</v>
+        <v>1850</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -2026,10 +2026,10 @@
         <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
-        <v>173</v>
+        <v>1620</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="n">
-        <v>77</v>
+        <v>2077</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -2224,12 +2224,12 @@
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>FH new y</t>
+          <t>FH flown</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>FH flown</t>
+          <t>FH final</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -2310,10 +2310,10 @@
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="n">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q3" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -2458,10 +2458,10 @@
         <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="n">
-        <v>108</v>
+        <v>1108</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="Q5" t="n">
-        <v>162</v>
+        <v>1500</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -2610,10 +2610,10 @@
         <v>23</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>FH new y</t>
+          <t>FH flown</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>FH flown</t>
+          <t>FH final</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -2809,10 +2809,10 @@
         <v>23</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -2882,10 +2882,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="Q3" t="n">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -2957,10 +2957,10 @@
         <v>21</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="n">
-        <v>192</v>
+        <v>692</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="n">
-        <v>100</v>
+        <v>631</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
